--- a/biology/Botanique/Parc_du_Cinquantenaire/Parc_du_Cinquantenaire.xlsx
+++ b/biology/Botanique/Parc_du_Cinquantenaire/Parc_du_Cinquantenaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc du Cinquantenaire (Jubelpark en néerlandais) est un parc de Bruxelles, en Belgique.
-Le parc est aménagé autour d'une porte de ville[1] à trois arches que les Bruxellois appellent les Arcades du Cinquantenaire.
+Le parc est aménagé autour d'une porte de ville à trois arches que les Bruxellois appellent les Arcades du Cinquantenaire.
 Plusieurs musées l'entourent : les Musées de l'armée, le Musée de l'aviation, le Musée de l'automobile, et les Musées royaux d'art et d'histoire qui présentent de vastes collections d'objets et des reconstitutions de sites de tous les continents (en particulier la colonnade d'Apamée en matériaux authentiques).
 L'esplanade qui s'étend devant le Palais du Cinquantenaire sert régulièrement à l'organisation d'événements de toutes sortes : départ et arrivée des 20 km de Bruxelles (course pédestre qui réunit chaque année 20 000 participants, 25 000 depuis 2009), fête de l'environnement, fête du vélo, concerts, festivals, manifestations, drive-in movie (cinéma de plein air) (juillet et août) ou encore l’ouverture de l’année académique de l’École royale militaire .
 Le parc est divisé en deux parties par un tronçon en surface de 440 mètres de long de la route à deux voies N3.
@@ -516,7 +528,9 @@
           <t>Historique de la création du parc</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À la fin du XIXe siècle, la Belgique nouvellement indépendante est en plein essor économique et industriel. Le roi Léopold II, rejoint par la bourgeoisie dirigeante, a la volonté de doter Bruxelles d’infrastructures, de parcs et de monuments prestigieux dignes d’une capitale. À l’approche du cinquantième anniversaire de la révolution de 1830 qui a entraîné l’indépendance de la Belgique, le choix d’un terrain pour y organiser les célébrations se porte sur le champ de manœuvres de la garnison de Bruxelles situé sur le territoire de la Commune d'Etterbeek dans l'axe de la rue de la Loi qui prend sa source dans le quartier historique de Bruxelles.
 Annexé à la ville de Bruxelles, l’endroit est aménagé pour le jubilé du cinquantenaire de l'indépendance belge en 1880. On y organise les festivités ainsi qu’une exposition nationale des produits de l'art et de l'industrie belges.
@@ -554,23 +568,96 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Édifices
-Les palais du Cinquantenaire
+          <t>Édifices</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les palais du Cinquantenaire
 L’aile nord est occupée par le Musée de l'armée
 La halle nord-est, par le Musée de l'aviation
 L’aile sud est occupée par les Musées royaux d'art et d'histoire et l’atelier de moulage, qui perpétue de manière artisanale les techniques de reproduction d’œuvres anciennes
 La halle sud-est est occupée par l’Autoworld, musée de l’automobile
 Les arcades du Cinquantenaire
 L'Institut royal du Patrimoine artistique, avenue de la Renaissance
-La Grande mosquée et le Centre islamique, inaugurés en 1978, angle nord-ouest. Le bâtiment d’origine, construit à l’occasion de l’exposition nationale de 1897 par l’architecte Ernest Van Humbeeck dans un style arabisant, abritait une fresque monumentale, le Panorama du Caire. Abandonné ensuite, l’édifice est offert en 1967 par le roi Baudouin au roi Fayçal d’Arabie saoudite qui le fait transformer et restaurer à ses frais par l’architecte tunisien Mongi Boubaker[2].
-Le Pavillon des passions humaines, l’un des premiers édifices de Victor Horta, construit en 1899 dans un style classique afin d'abriter le bas relief monumental du sculpteur Jef Lambeaux Les passions humaines 1886, qui évoque les plaisirs et malheurs de l’humanité. Trois jours après l’ouverture l’œuvre, trop osée pour l’époque, qui représente des corps enlacés provoque un véritable scandale moral. L'entrée du pavillon située derrière les colonnes de façade est murée et fermée par une porte métallique et le restera longtemps.
-Monuments
-Les pionniers belges au Congo, ce large monument érigé en 1921 par Thomas Vinçotte et destiné à frapper les esprits de l’époque. Un écriteau posé à son côté porte une inscription inspirée par la mentalité paternaliste de l’époque. Il représente plusieurs groupes de personnages : à la base, entouré d’un bassin, un jeune Congolais allongé près d’un crocodile représente la sauvagerie du fleuve. Au-dessus de lui, un large bas relief représente Léopold II lui-même, assis et entouré de soldats accueillant une femme congolaise et ses enfants, des missionnaires et explorateurs. Au-dessus, les deux nations personnifiées par deux jeunes femmes.
+La Grande mosquée et le Centre islamique, inaugurés en 1978, angle nord-ouest. Le bâtiment d’origine, construit à l’occasion de l’exposition nationale de 1897 par l’architecte Ernest Van Humbeeck dans un style arabisant, abritait une fresque monumentale, le Panorama du Caire. Abandonné ensuite, l’édifice est offert en 1967 par le roi Baudouin au roi Fayçal d’Arabie saoudite qui le fait transformer et restaurer à ses frais par l’architecte tunisien Mongi Boubaker.
+Le Pavillon des passions humaines, l’un des premiers édifices de Victor Horta, construit en 1899 dans un style classique afin d'abriter le bas relief monumental du sculpteur Jef Lambeaux Les passions humaines 1886, qui évoque les plaisirs et malheurs de l’humanité. Trois jours après l’ouverture l’œuvre, trop osée pour l’époque, qui représente des corps enlacés provoque un véritable scandale moral. L'entrée du pavillon située derrière les colonnes de façade est murée et fermée par une porte métallique et le restera longtemps.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Parc_du_Cinquantenaire</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parc_du_Cinquantenaire</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Édifices et monuments du parc</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Monuments</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les pionniers belges au Congo, ce large monument érigé en 1921 par Thomas Vinçotte et destiné à frapper les esprits de l’époque. Un écriteau posé à son côté porte une inscription inspirée par la mentalité paternaliste de l’époque. Il représente plusieurs groupes de personnages : à la base, entouré d’un bassin, un jeune Congolais allongé près d’un crocodile représente la sauvagerie du fleuve. Au-dessus de lui, un large bas relief représente Léopold II lui-même, assis et entouré de soldats accueillant une femme congolaise et ses enfants, des missionnaires et explorateurs. Au-dessus, les deux nations personnifiées par deux jeunes femmes.
 À gauche, l'« Héroïque soldat belge anéantit l’Arabe esclavagiste », à droite, « Il se dévoue pour son chef blessé » (l'inscription Arabe a été retirée puis réinstallée plusieurs fois de la version française (à la suite de la polémique de la Grande Mosquée de Bruxelles située dans le parc) et l'initiale "A" subsiste dans la version flamande). Une citation du roi datant de 1906 dit : "J’ai entrepris l’œuvre du Congo dans l’intérêt de la civilisation et pour le bien du peuple belge".
 Le monument d’hommage aux aviateurs tombés en service, côté nord-est, avec une sculpture de Claude Rahir, bronze, 2000.
-La tour de Tournai ou tour Beyaert, curieux édifice conçu par l'architecte Henri Beyaert à l'occasion de l'exposition nationale du Jubilé de 1880 pour célébrer le cinquantenaire de l'indépendance belge. Bâti en 1880 dans un style pseudo-médiéval, il était destiné à démontrer les qualités de la pierre de Tournai.
-Sculptures
-Le Faucheur - bronze 1892 -  Constantin Meunier
+La tour de Tournai ou tour Beyaert, curieux édifice conçu par l'architecte Henri Beyaert à l'occasion de l'exposition nationale du Jubilé de 1880 pour célébrer le cinquantenaire de l'indépendance belge. Bâti en 1880 dans un style pseudo-médiéval, il était destiné à démontrer les qualités de la pierre de Tournai.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Parc_du_Cinquantenaire</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parc_du_Cinquantenaire</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Édifices et monuments du parc</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sculptures</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le Faucheur - bronze 1892 -  Constantin Meunier
 Les bâtisseurs de villes – bronze  1893 - Charles-Pierre Van der Stappen.
 Le dogue d'Ulm – bronze 1896 – Jean-Baptiste Van Heffen : lors du 75e anniversaire de l'Indépendance de la Belgique, une brillante exposition est organisée au Cinquantenaire et, à cette occasion, plusieurs sculptures sont exposées à l'entrée du parc de Woluwe, fraîchement inauguré. Face à une auberge, on pouvait voir un chien de bronze, rapidement patiné de vert. L'établissement s'appellera dès ce moment le « Chien vert », et fera placer sur son toit une enseigne en ferronnerie de deux mètres de haut en forme de chien assis de couleur verte. Cette pièce de métal, disparue en 1967, a retrouvé une place d'honneur au-dessus de la porte d'entrée de l'immeuble qui a remplacé l’auberge. Le chien de bronze a, quant à lui, été déplacé dans le parc du Cinquantenaire.
 Samson lançant des renards dans les champs des Philistins – pierre 1878 – Jean-Baptiste Van Heffen : pour se venger des Philistins, Samson, juge d’Israël au XIIe siècle av. J.-C., lia 300 renards l’un à l’autre par la queue, leur attacha des flambeaux et les lâcha au milieu des blés de ses ennemis pour les réduire en cendres.
@@ -583,63 +670,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Parc_du_Cinquantenaire</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Parc_du_Cinquantenaire</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Arbres remarquables</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ci-dessous, quelques-uns des arbres remarquables du parc répertoriés par la Commission des monuments et des sites :
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Parc_du_Cinquantenaire</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Parc_du_Cinquantenaire</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Accès</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
-    </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
@@ -661,10 +691,73 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Arbres remarquables</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ci-dessous, quelques-uns des arbres remarquables du parc répertoriés par la Commission des monuments et des sites :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Parc_du_Cinquantenaire</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parc_du_Cinquantenaire</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Accès</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Parc_du_Cinquantenaire</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parc_du_Cinquantenaire</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Anecdotes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Ce monument d'inspiration style antique a été imité en Chine aux deux tiers de sa taille, à l'entrée d'un parc de loisirs[Lequel ?].
 Le parc du Cinquantenaire a servi de décors au vidéo-clip de Fils de joie de Stromae.
